--- a/diagrams/ERD/educom-ecopowrrr.xlsx
+++ b/diagrams/ERD/educom-ecopowrrr.xlsx
@@ -4,16 +4,15 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="customer_advisor" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="purchase_price" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="sell_price" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="device_controller" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="device_status" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="device" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="device_type" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="customer" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="message" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="yield" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="surplus" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="price" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="device_manager" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="device_status" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="device" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="device_type" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="customer" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="message" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="yield" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="surplus" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -65,7 +64,7 @@
     <t>inactive</t>
   </si>
   <si>
-    <t>device_controller_id</t>
+    <t>device_manager_id</t>
   </si>
   <si>
     <t>serial number</t>
@@ -93,6 +92,9 @@
   </si>
   <si>
     <t>nuclear</t>
+  </si>
+  <si>
+    <t>customer_advisor_id</t>
   </si>
   <si>
     <t>zipcode</t>
@@ -234,10 +236,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -530,42 +528,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -603,35 +572,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -682,7 +622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -721,7 +661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -809,7 +749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -864,7 +804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -875,9 +815,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="15.88"/>
-    <col customWidth="1" min="8" max="8" width="16.25"/>
-    <col customWidth="1" min="9" max="9" width="11.25"/>
-    <col customWidth="1" min="11" max="11" width="18.75"/>
+    <col customWidth="1" min="3" max="3" width="16.38"/>
+    <col customWidth="1" min="9" max="9" width="16.25"/>
+    <col customWidth="1" min="10" max="10" width="11.25"/>
+    <col customWidth="1" min="12" max="12" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -914,6 +855,9 @@
       <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -922,14 +866,14 @@
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1">
         <v>63.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>35</v>
@@ -940,14 +884,17 @@
       <c r="H2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3">
         <v>25569.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>39</v>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -957,32 +904,35 @@
       <c r="B3" s="1">
         <v>2.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
         <v>36.0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3">
         <v>37347.0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1028,4 +978,33 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>